--- a/public/Sinh-viên-UTC.xlsx
+++ b/public/Sinh-viên-UTC.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Mã sinh viên</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nơi sinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giới tính</t>
   </si>
   <si>
     <t xml:space="preserve">Lớp</t>
@@ -180,15 +183,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +243,9 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -249,8 +254,8 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
